--- a/biology/Zoologie/Colletidae/Colletidae.xlsx
+++ b/biology/Zoologie/Colletidae/Colletidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Collétidés
-Les Collétidés (Colletidae) forment une famille d'abeilles, des insectes hyménoptères de la super-famille des Apoïdes. Ce sont des abeilles à langue courte qui creusent leur nid dans le sol. En français elles sont appelées abeilles plâtrières, abeilles masquées ou encore abeilles à face jaune[1].
+Les Collétidés (Colletidae) forment une famille d'abeilles, des insectes hyménoptères de la super-famille des Apoïdes. Ce sont des abeilles à langue courte qui creusent leur nid dans le sol. En français elles sont appelées abeilles plâtrières, abeilles masquées ou encore abeilles à face jaune.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Collétidés connus sont tous des espèces solitaires, à l'exception de l'abeille australienne Amphylaeus morosus (sv). Chez cette espèce, un nid est généralement partagé par deux femelles dont une seule pond, l'autre contribuant à la défense du nid ; certains individus restent cependant solitaires[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Collétidés connus sont tous des espèces solitaires, à l'exception de l'abeille australienne Amphylaeus morosus (sv). Chez cette espèce, un nid est généralement partagé par deux femelles dont une seule pond, l'autre contribuant à la défense du nid ; certains individus restent cependant solitaires.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les collétidés sont classés en 6 sous-familles[3] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les collétidés sont classés en 6 sous-familles : 
 Colletinae Lepeletier, 1841
 Brachyglossula (Hedicke, 1922)
 Callomelitta (Smith, 1853)
